--- a/data/trans_orig/Q15_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q15_1-Edad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.1147196194982746</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.08186007641026989</v>
+        <v>0.08186007641026988</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.05194744733318329</v>
@@ -693,7 +693,7 @@
         <v>0.08139231874183733</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.07567076311072821</v>
+        <v>0.07567076311072819</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09566799189397915</v>
+        <v>0.09593161281784368</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1080931858316877</v>
+        <v>0.1100629255961829</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08500738310003908</v>
+        <v>0.08319214808531696</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03240043548768601</v>
+        <v>0.0294748114051099</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03341635188647676</v>
+        <v>0.0332361562996281</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05315653993239451</v>
+        <v>0.05195489155419841</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02877153566699845</v>
+        <v>0.02779982862243878</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03612031955458995</v>
+        <v>0.03580545755650071</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07201005062681728</v>
+        <v>0.07244174847386925</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0894311258276176</v>
+        <v>0.08935498463066176</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06126518181573428</v>
+        <v>0.0629377519580827</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04305426546906204</v>
+        <v>0.04189485859673962</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1851755238830642</v>
+        <v>0.1888312781609232</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1842674471168758</v>
+        <v>0.1880387048723447</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1595471625646925</v>
+        <v>0.1619694766253003</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2535417504466332</v>
+        <v>0.240064464276391</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0753200387895427</v>
+        <v>0.07889021784076376</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1089891543732273</v>
+        <v>0.1093742800027397</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06847800561979173</v>
+        <v>0.06869966186592281</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1326796480517996</v>
+        <v>0.1209223019301562</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1211470038637784</v>
+        <v>0.1217554836007558</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1363685929804035</v>
+        <v>0.1374653495055351</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1051446978171147</v>
+        <v>0.1066276701021608</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1582507319188493</v>
+        <v>0.1653871533261253</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07014246520500024</v>
+        <v>0.07204317758679211</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09768278159574596</v>
+        <v>0.09790535661756133</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06734183184209172</v>
+        <v>0.06702844485169424</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06097425780926356</v>
+        <v>0.06188774961089764</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0400643307368139</v>
+        <v>0.04066402351121821</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04719449569916279</v>
+        <v>0.04523567188369396</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02740277694600763</v>
+        <v>0.02653675459912226</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01846702664497581</v>
+        <v>0.01693140023866824</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06155562972794505</v>
+        <v>0.06063765335319857</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08127391133310728</v>
+        <v>0.0793597564183925</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05035733196058591</v>
+        <v>0.05217497278905465</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04617176132639319</v>
+        <v>0.04407639295151587</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1164153887551201</v>
+        <v>0.1168448211181056</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1532682064545658</v>
+        <v>0.1544668025548192</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1165125687349284</v>
+        <v>0.1177744608725495</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2537650629620043</v>
+        <v>0.2528509903160728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07874598743256683</v>
+        <v>0.08120963024548961</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1025129235112296</v>
+        <v>0.09594326617294482</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06307313258460798</v>
+        <v>0.06004052649406365</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05181063429105098</v>
+        <v>0.04853679409467719</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09281494506872733</v>
+        <v>0.09233541735104839</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1174761841048456</v>
+        <v>0.1179122919335223</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0815652307229965</v>
+        <v>0.08398676462628672</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1420608555284812</v>
+        <v>0.1302838702503171</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.05511840373413055</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06651271647811186</v>
+        <v>0.06651271647811184</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02922357167093957</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05583683143457277</v>
+        <v>0.05523203816913386</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06519924839511321</v>
+        <v>0.06448872852053482</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0378374453879673</v>
+        <v>0.03763089217088756</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04593993887946285</v>
+        <v>0.04543550991636946</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01824250739087306</v>
+        <v>0.01797941313004498</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03339743997880392</v>
+        <v>0.03245351640790177</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02844270453698956</v>
+        <v>0.02784110338303458</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04189654626937735</v>
+        <v>0.04297664750803564</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03947564302734986</v>
+        <v>0.04093040177151841</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05335078765695049</v>
+        <v>0.05197846072204493</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03910975676817655</v>
+        <v>0.03795065101552569</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04860322426586505</v>
+        <v>0.04983972586040782</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.104844054817901</v>
+        <v>0.1056833927599829</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1157098130991752</v>
+        <v>0.1139831304990704</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07590140568197928</v>
+        <v>0.07512848228362712</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09802362203432893</v>
+        <v>0.09633100987199085</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04382122324858059</v>
+        <v>0.04540251505169692</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07093401920571916</v>
+        <v>0.06878107930865487</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06858573445756824</v>
+        <v>0.0691416622998844</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08556704358567709</v>
+        <v>0.08886203915714318</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06660108607702883</v>
+        <v>0.06688445830832981</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0833126691963504</v>
+        <v>0.08306953544113981</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06550426351949873</v>
+        <v>0.06373878477598642</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08190396391726752</v>
+        <v>0.08114689719190968</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.04783217623458862</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08341671732707298</v>
+        <v>0.083416717327073</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03856455695665836</v>
@@ -1101,7 +1101,7 @@
         <v>0.04276575145622191</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07456235616026871</v>
+        <v>0.07456235616026873</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06820068764546523</v>
+        <v>0.06746150733365569</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05059685623640695</v>
+        <v>0.05184280213664967</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03204091406944771</v>
+        <v>0.03274192955215447</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06309845702187118</v>
+        <v>0.06113849309247466</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02345593206472444</v>
+        <v>0.02438518788141176</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04341609866556904</v>
+        <v>0.04184226002913942</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02344896508037105</v>
+        <v>0.02454424634072603</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04527013043568392</v>
+        <v>0.04576042978796513</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04994893281790153</v>
+        <v>0.05011025406730363</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05143103238631517</v>
+        <v>0.0542910212381699</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0319914003831506</v>
+        <v>0.03241996414139144</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06061255603895899</v>
+        <v>0.05922738580127251</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1280574885942537</v>
+        <v>0.1317066585278521</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1210034920572499</v>
+        <v>0.1209131628572455</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07056701555546739</v>
+        <v>0.06979396873918392</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1093085998118769</v>
+        <v>0.1113403556090105</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05766313221436881</v>
+        <v>0.05850849349527414</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08757740334250486</v>
+        <v>0.08587943808547517</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0537858718158478</v>
+        <v>0.05432525972682218</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1074202742488544</v>
+        <v>0.106412088880111</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08580880655534169</v>
+        <v>0.08642209237896546</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09130497534752323</v>
+        <v>0.09220993690917058</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05607615191814775</v>
+        <v>0.05756629380731256</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09605371127679492</v>
+        <v>0.0953298068592655</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02609848312365006</v>
+        <v>0.02658424578155282</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0152403364003453</v>
+        <v>0.01523376335376464</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01818121794980203</v>
+        <v>0.01786061692771202</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03685859824950823</v>
+        <v>0.03633160996433079</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04104459261370719</v>
+        <v>0.04076992917721699</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07382100335681854</v>
+        <v>0.07511256729804829</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05073475438108414</v>
+        <v>0.0478486202719772</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05404031255134115</v>
+        <v>0.05250323610728597</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04006053665171044</v>
+        <v>0.03818040571086917</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05093051400454498</v>
+        <v>0.04998686272973876</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03637589367910567</v>
+        <v>0.03849810853696979</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05067153194070252</v>
+        <v>0.05032850858719194</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06640080152980046</v>
+        <v>0.06812953544707907</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05064398674027319</v>
+        <v>0.04976784810915389</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06253843259804499</v>
+        <v>0.06134263900634006</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07264830413404361</v>
+        <v>0.07360912721187686</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1688915910629503</v>
+        <v>0.1689324614125429</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1460660034378702</v>
+        <v>0.1456467126296539</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1172035248328729</v>
+        <v>0.1107226339929244</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09174535652928217</v>
+        <v>0.0921702307472497</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1164526252383868</v>
+        <v>0.1095738124388992</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09257272141899966</v>
+        <v>0.09090940749716217</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07390468946499588</v>
+        <v>0.07527066548615652</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07725451569567403</v>
+        <v>0.07716580204335098</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.04385771226136704</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.05170051525832448</v>
+        <v>0.05170051525832449</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.08487500584662085</v>
@@ -1361,7 +1361,7 @@
         <v>0.1085520031631179</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1183832435360351</v>
+        <v>0.118383243536035</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.06271479781643519</v>
@@ -1373,7 +1373,7 @@
         <v>0.07817777881374427</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.08630605836630992</v>
+        <v>0.08630605836630993</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02040523158076327</v>
+        <v>0.01896077408088239</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04050045471396443</v>
+        <v>0.04021774252171541</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02270330108924474</v>
+        <v>0.0222722646241665</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03372259020131622</v>
+        <v>0.03286222420032514</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.05630712551725105</v>
+        <v>0.05618727871733818</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06307399503104519</v>
+        <v>0.0640650912634351</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0695337516983159</v>
+        <v>0.07355696923033846</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.09053184787001492</v>
+        <v>0.08788609263712006</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04220506094685526</v>
+        <v>0.04490132510821621</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.06512437869796696</v>
+        <v>0.06543814955362293</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0554358532894812</v>
+        <v>0.05427878520430016</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.0683307320200463</v>
+        <v>0.06665929078945837</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06059791701697581</v>
+        <v>0.06090600410681862</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2840065059919687</v>
+        <v>0.2283090915961788</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.08849175073197701</v>
+        <v>0.08064390602163851</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.07714217331618133</v>
+        <v>0.07714349547523811</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1231526245646414</v>
+        <v>0.1303884959195809</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1582290079096499</v>
+        <v>0.1508962420839777</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1628791856824482</v>
+        <v>0.1694401885041307</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1631174422068602</v>
+        <v>0.15931893516995</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.08698565003802249</v>
+        <v>0.08749326461776115</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.16495269323554</v>
+        <v>0.1646553292190993</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1116184356932044</v>
+        <v>0.1114594734030649</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1106192514118531</v>
+        <v>0.1093289221757849</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.07344130483052437</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1195610727964738</v>
+        <v>0.1195610727964739</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1120908468752418</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02139821005515026</v>
+        <v>0.01775861125473937</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08171111222725384</v>
+        <v>0.07934253609569877</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0411681295787009</v>
+        <v>0.04400420032893252</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07877186762175599</v>
+        <v>0.08000163537274479</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.07703782263461506</v>
+        <v>0.07676337476385972</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1548875882047178</v>
+        <v>0.1560163483298591</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.101746216464629</v>
+        <v>0.1065777924908291</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1626466790687974</v>
+        <v>0.1676370432470853</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.059879557768069</v>
+        <v>0.05779040609395349</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1411541654316382</v>
+        <v>0.1402670457979218</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.09084413360020276</v>
+        <v>0.09032005777640215</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1433382165503896</v>
+        <v>0.1416512095671058</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08129138243861371</v>
+        <v>0.07790867730816492</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2117332216236744</v>
+        <v>0.2145772408461825</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1139862228466014</v>
+        <v>0.1162515305057033</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2097327165678523</v>
+        <v>0.2192308532284874</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1620960663431731</v>
+        <v>0.1560976636654661</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3445041622462907</v>
+        <v>0.3437967111730538</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2414783153107965</v>
+        <v>0.2354650602008188</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2745012146250034</v>
+        <v>0.2836711813182123</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1182650410048341</v>
+        <v>0.1142498673363431</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.265567014637637</v>
+        <v>0.2611372532395733</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1785374111437212</v>
+        <v>0.1727510708139199</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2257932473930964</v>
+        <v>0.2241154321089669</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>0.06462094881087156</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.07888563039453378</v>
+        <v>0.07888563039453379</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.05825302624045315</v>
@@ -1645,7 +1645,7 @@
         <v>0.06548119251700488</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.0823196691693522</v>
+        <v>0.08231966916935221</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.07007910331815577</v>
+        <v>0.07123257618210006</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.08251196790149166</v>
+        <v>0.08400808603599536</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05553298768160423</v>
+        <v>0.05599281460770466</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.06588717459707563</v>
+        <v>0.06570752430096531</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04928599906799205</v>
+        <v>0.05025321117447924</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.07529770993230973</v>
+        <v>0.07696292609458956</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.05585130632948162</v>
+        <v>0.05614062671804305</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.07480977542920622</v>
+        <v>0.0750464679524246</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.06229208910341892</v>
+        <v>0.06257433446085586</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.08301286871821267</v>
+        <v>0.08309056480327964</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.05820986156838658</v>
+        <v>0.05839427071788267</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.07359098638740731</v>
+        <v>0.07355127696819765</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.09382906346804241</v>
+        <v>0.09366406017161281</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1110438756591971</v>
+        <v>0.1123809888305604</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.07506107680216674</v>
+        <v>0.07572850243803332</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1012555892005746</v>
+        <v>0.1046655563940897</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07059957792608648</v>
+        <v>0.07077287568279908</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1027148052351433</v>
+        <v>0.1038650106354597</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0790623194543266</v>
+        <v>0.0786829480213181</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.09825184437550556</v>
+        <v>0.09952930826591021</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.07848928439473649</v>
+        <v>0.07804130924295556</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1028821247477596</v>
+        <v>0.1027288106134898</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.07354384864434137</v>
+        <v>0.0725257443209489</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.09444819161072121</v>
+        <v>0.09519803409940614</v>
       </c>
     </row>
     <row r="28">
